--- a/R_ice_camp/trophic_mode_assignment/trophic_mode_updated.xlsx
+++ b/R_ice_camp/trophic_mode_assignment/trophic_mode_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarencesim/Documents/GitHub/SIM_GreenEdge_IceCamp/R_ice_camp/trophic_mode_assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E206FE-1AEB-F248-BD4E-3AD73CFAA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8388B70-095F-6047-8F9E-E64D9B2D3279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18596" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18600" uniqueCount="3464">
   <si>
     <t>id</t>
   </si>
@@ -10418,6 +10418,9 @@
   </si>
   <si>
     <t>generalisation</t>
+  </si>
+  <si>
+    <t>Paraphysomonadales</t>
   </si>
 </sst>
 </file>
@@ -10830,11 +10833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1724"/>
+  <dimension ref="A1:P1725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1563" sqref="D1563"/>
+      <pane ySplit="1" topLeftCell="A1715" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1732" sqref="C1732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -78703,6 +78706,20 @@
         <v>3451</v>
       </c>
     </row>
+    <row r="1725" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1725" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C1725" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>3451</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:P1713" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
